--- a/Scripts.xlsx
+++ b/Scripts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Blockchain\Contracts\VESTRADAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F85E9-7ACB-4119-B9AD-349C326EBB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E3F06-6526-42EB-B6BA-D581E8D04ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13764" yWindow="6588" windowWidth="26856" windowHeight="15744" xr2:uid="{4C2C167E-E9C6-4231-8D75-8EA41D8A16AA}"/>
+    <workbookView xWindow="13908" yWindow="3972" windowWidth="34560" windowHeight="18600" xr2:uid="{4C2C167E-E9C6-4231-8D75-8EA41D8A16AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sayfa1!$A$1:$F$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sayfa1!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Sn.</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>2001_NFT_setAddresses.js</t>
-  </si>
-  <si>
-    <t>2002_DAO_setAddress.js</t>
   </si>
   <si>
     <t>2003_DAO_setFirstDelegates.js</t>
@@ -322,7 +319,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -350,16 +347,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -684,10 +671,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -724,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
@@ -982,7 +969,7 @@
         <v>4500000000</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1000,7 +987,7 @@
         <v>4000000000</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1018,7 +1005,7 @@
         <v>2250000000</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -1036,7 +1023,7 @@
         <v>3750000000</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1054,7 +1041,7 @@
         <v>1750000000</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1072,7 +1059,7 @@
         <v>1650000000</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -1090,7 +1077,7 @@
         <v>1250000000</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -1108,7 +1095,7 @@
         <v>1350000000</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1126,7 +1113,7 @@
         <v>10000000000</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1144,7 +1131,7 @@
         <v>1000000000</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -1162,7 +1149,7 @@
         <v>4250000000</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -1280,7 +1267,7 @@
     </row>
     <row r="39" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>2002</v>
@@ -1294,40 +1281,42 @@
     </row>
     <row r="40" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>2003</v>
+        <v>3000</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="12">
+        <v>1000000000</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="12">
-        <v>1000000000</v>
+        <v>750000000</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>44</v>
@@ -1340,99 +1329,91 @@
     </row>
     <row r="43" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="12">
-        <v>750000000</v>
-      </c>
-      <c r="E43" s="9"/>
+      <c r="D43" s="13">
+        <v>35750000000</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="13">
-        <v>35750000000</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="D44" s="12">
+        <v>2000000000</v>
+      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="12">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="12">
-        <v>1000000000</v>
+        <v>7500000000</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5">
-        <v>3006</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="12">
-        <v>7500000000</v>
+        <v>1250000000</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1250000000</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="9"/>
       <c r="F48" s="5"/>
     </row>
@@ -1452,26 +1433,13 @@
       <c r="E50" s="9"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D21:D27 E21:E30 D29:D30 D31:E42 D47:E54 C55:E1048576 C3:C51 D3:E20 C1:E2">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="deploy">
+  <conditionalFormatting sqref="C1:E2 D3:E20 D21:D27 E21:E30 D29:D30 D46:E53 C54:E1048576 C3:C50 D31:E41">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="deploy">
       <formula>NOT(ISERROR(SEARCH("deploy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E20 C3:C51 D21:D27 E21:E30 D29:D30 D31:E42 D47:E51 D52:F54 C55:F1048576 F1 F31:F51 F3:F15 C2:F2">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="set">
-      <formula>NOT(ISERROR(SEARCH("set",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E20 C3:C51 D21:D27 E21:E30 D29:D30 D31:E42 D47:E54 C55:E1048576 C2:E2">
+  <conditionalFormatting sqref="C2:E2 D3:E20 D21:D27 E21:E30 D29:D30 D46:E53 C54:E1048576 C3:C50 D31:E41">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="verify">
       <formula>NOT(ISERROR(SEARCH("verify",C2)))</formula>
     </cfRule>
@@ -1479,6 +1447,11 @@
       <formula>NOT(ISERROR(SEARCH("send",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:F2 D3:E20 D21:D27 E21:E30 D29:D30 D46:E50 D51:F53 C54:F1048576 F1 F3:F15 C3:C50 D31:E41 F31:F50">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="set">
+      <formula>NOT(ISERROR(SEARCH("set",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
 </worksheet>
